--- a/database.xlsx
+++ b/database.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10600" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="10600"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
-    <sheet name="Types" sheetId="2" r:id="rId2"/>
+    <sheet name="Types" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="210">
   <si>
     <t>id</t>
   </si>
@@ -159,6 +159,12 @@
     <t>slogan</t>
   </si>
   <si>
+    <t>simple_description</t>
+  </si>
+  <si>
+    <t>factory_setting</t>
+  </si>
+  <si>
     <t>bug_warning</t>
   </si>
   <si>
@@ -180,13 +186,28 @@
     <t>听风者</t>
   </si>
   <si>
-    <t>既是秩序，也是寒冬</t>
-  </si>
-  <si>
     <t>听不到，才听得见。</t>
   </si>
   <si>
-    <t>你的身体主动开启了“低功耗模式”（寒+虚），屏蔽了视觉的干扰。这反而赋予了你极高的信噪比（气郁）。你像精密的雷达，能在安静中捕捉到风的秘密。</t>
+    <t>世界太吵，你只是关小了音量。</t>
+  </si>
+  <si>
+    <t>你的身体主动开启了“低功耗模式”，屏蔽了视觉的干扰。这反而赋予了你极高的信噪比。你像精密的雷达，能在安静中捕捉到风的秘密。</t>
+  </si>
+  <si>
+    <t>容易emo，社交电量低，一到晚上就自动关机。</t>
+  </si>
+  <si>
+    <t>HSDQ (破壁人)</t>
+  </si>
+  <si>
+    <t>工位常备小毯子</t>
+  </si>
+  <si>
+    <t>睡前刷致郁视频</t>
+  </si>
+  <si>
+    <t>换个暖色调的壁纸</t>
   </si>
   <si>
     <t>CVDB</t>
@@ -195,13 +216,28 @@
     <t>守夜人</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>长夜将至，我从今开始守望。</t>
   </si>
   <si>
-    <t>体内的凝滞（瘀）不是迟钝，而是定力。你像绝境长城上的守卫，习惯了寒冷与孤寂。虽然血液流速慢，但你是所有人里最能死扛到底、最守得住秘密的人。</t>
+    <t>凛冬的寒冰，是为了封存最滚烫的秘密。</t>
+  </si>
+  <si>
+    <t>体内的凝滞不是迟钝，而是定力。你像绝境长城上的守卫，习惯了寒冷与孤寂。虽然血液流速慢，但你是所有人里最能死扛到底的人。</t>
+  </si>
+  <si>
+    <t>手脚像冰块，自带冷气场，黑眼圈半永久。</t>
+  </si>
+  <si>
+    <t>HSDB (大圣)</t>
+  </si>
+  <si>
+    <t>把秋裤塞进袜子里</t>
+  </si>
+  <si>
+    <t>露脚踝/穿船袜</t>
+  </si>
+  <si>
+    <t>搓热双手捂后腰</t>
   </si>
   <si>
     <t>CVWQ</t>
@@ -213,7 +249,25 @@
     <t>昔我往矣，杨柳依依；今我来思，雨雪霏霏。</t>
   </si>
   <si>
-    <t>湿气氤氲（湿）是你的墨水，愁绪（气郁）是你的灵感。你像古代行走民间的采诗官，身体虽因湿气而沉静慵懒，但灵魂在烟雨中自由行走，敏感是你天赋的才华。</t>
+    <t>身体沉睡在烟雨里，灵魂却在写诗。</t>
+  </si>
+  <si>
+    <t>湿气是你的墨水，愁绪是你的灵感。你像古代行走民间的采诗官，身体虽因湿气而沉静慵懒，但灵魂在烟雨中自由行走，敏感是你天赋的才华。</t>
+  </si>
+  <si>
+    <t>起床困难户，感觉身体被封印，总觉得睡不够。</t>
+  </si>
+  <si>
+    <t>HSWQ (拓荒者)</t>
+  </si>
+  <si>
+    <t>晒太阳像猫一样发呆</t>
+  </si>
+  <si>
+    <t>湿着头发玩手机</t>
+  </si>
+  <si>
+    <t>把冰美式换成热拿铁</t>
   </si>
   <si>
     <t>CVWB</t>
@@ -225,7 +279,25 @@
     <t>时间一直走，没有尽头，只有路口。</t>
   </si>
   <si>
-    <t>寒湿与瘀血的沉积，让你的生命底色深沉厚重。你像忘川河上的摆渡人，流速极慢，是因为你承载了太多的情绪与责任，你给别人带来了最深沉的安全感。</t>
+    <t>行舟缓慢，只因载满了人间的深情。</t>
+  </si>
+  <si>
+    <t>寒湿与瘀血的沉积，让你的生命底色深沉厚重。你像忘川河上的摆渡人，流速极慢，是因为你承载了太多的情绪与责任。</t>
+  </si>
+  <si>
+    <t>喝水都胖，走路像腿上绑了沙袋，容易忘事。</t>
+  </si>
+  <si>
+    <t>HSWB (收藏家)</t>
+  </si>
+  <si>
+    <t>边追剧边泡脚</t>
+  </si>
+  <si>
+    <t>晚饭只吃水果</t>
+  </si>
+  <si>
+    <t>握拳敲打大腿外侧</t>
   </si>
   <si>
     <t>CSDQ</t>
@@ -237,7 +309,25 @@
     <t>谁说站在光里的才算英雄？</t>
   </si>
   <si>
-    <t>环境严酷（寒）且压力巨大（郁），你选择独自承受。你的身体素质过硬（实），外表冷漠，是因为你在内心构建了一道绝对防御。你的“冷”是为了保护心中的火。</t>
+    <t>外表的冷若冰霜，是保护内心火焰的铠甲。</t>
+  </si>
+  <si>
+    <t>环境严酷且压力巨大，你选择独自承受。外表冷漠，是因为你在内心构建了一道绝对防御。你的“冷”是为了保护心中的火。</t>
+  </si>
+  <si>
+    <t>高冷面瘫，心里戏多但不想说，容易胃痛。</t>
+  </si>
+  <si>
+    <t>HVDQ (逐日者)</t>
+  </si>
+  <si>
+    <t>听听相声/脱口秀</t>
+  </si>
+  <si>
+    <t>生闷气/玩冷战</t>
+  </si>
+  <si>
+    <t>深呼吸把气叹出来</t>
   </si>
   <si>
     <t>CSDB</t>
@@ -246,10 +336,28 @@
     <t>执剑人</t>
   </si>
   <si>
-    <t>没关系的，都一样。</t>
-  </si>
-  <si>
-    <t>寒凝与实邪（瘀+实），把你锻造成了一块玄铁。你缺乏温度，是因为你必须保持绝对的理性与硬度。你是秩序的维护者，坚硬是你对世界的态度。</t>
+    <t>我对三体世界说话。</t>
+  </si>
+  <si>
+    <t>不懂弯腰，是因为脊梁铸成了铁。</t>
+  </si>
+  <si>
+    <t>寒凝与实邪把你锻造成了一块玄铁。你缺乏温度，是因为你必须保持绝对的理性与硬度。你是秩序的维护者，坚硬是你对世界的态度。</t>
+  </si>
+  <si>
+    <t>痛经/身体刺痛，不仅硬核还硬撑，嘴唇偏紫。</t>
+  </si>
+  <si>
+    <t>HVDB (铸剑师)</t>
+  </si>
+  <si>
+    <t>喝红糖姜茶续命</t>
+  </si>
+  <si>
+    <t>不舒服还强撑</t>
+  </si>
+  <si>
+    <t>做个扩胸运动</t>
   </si>
   <si>
     <t>CSWQ</t>
@@ -261,7 +369,25 @@
     <t>浴兰汤兮沐芳，华采衣兮若英。</t>
   </si>
   <si>
-    <t>湿气与实邪（湿+实）是你周身缭绕的云雾。你像《九歌》里的神祇，让人看不清真容（气郁）。这种“朦胧感”是你天然的高级滤镜，神秘与距离感是你最大的魅力。</t>
+    <t>我也想看清世界，但这云雾太迷人。</t>
+  </si>
+  <si>
+    <t>湿气与实邪是你周身缭绕的云雾。你像《九歌》里的云神，虽被云雾遮蔽了视线，但这也让你自带仙气，能驾驭混沌。</t>
+  </si>
+  <si>
+    <t>脑袋像戴了紧箍咒，永远睡不醒，嗓子总有痰。</t>
+  </si>
+  <si>
+    <t>HVWQ (造梦者)</t>
+  </si>
+  <si>
+    <t>每天快走20分钟出汗</t>
+  </si>
+  <si>
+    <t>奶茶加满全糖全料</t>
+  </si>
+  <si>
+    <t>顺时针揉肚子</t>
   </si>
   <si>
     <t>CSWB</t>
@@ -273,7 +399,25 @@
     <t>知其雄，守其雌，为天下溪。</t>
   </si>
   <si>
-    <t>你的体内积淀了太多的物质（湿/实/瘀），但这不只是负担，更是阅历的宝藏。你像掌管天下典籍的老子，虽然处于阴暗静止的角落（寒），但你肚子里装的是大智慧。</t>
+    <t>深藏不露是你的本能，你在静默中守护智慧。</t>
+  </si>
+  <si>
+    <t>寒湿内敛且有瘀滞，你像老子笔下的守藏史，深沉如谷底的溪流。你不争不抢，是因为你知道万物的归宿。你的静默中蕴含着巨大的承载力。</t>
+  </si>
+  <si>
+    <t>关节比天气预报准，一到阴雨天就只想躺平。</t>
+  </si>
+  <si>
+    <t>HVWB (谪仙人)</t>
+  </si>
+  <si>
+    <t>买个艾草锤敲敲背</t>
+  </si>
+  <si>
+    <t>下雨天不打伞</t>
+  </si>
+  <si>
+    <t>站起来走两步</t>
   </si>
   <si>
     <t>HVDQ</t>
@@ -285,7 +429,25 @@
     <t>弃其杖，化为邓林。</t>
   </si>
   <si>
-    <t>阴虚火旺是你的燃料。你像夸父一样，在燃烧自己的津液（虚）去追求那个遥不可及的目标。即便燃尽自己，也要留下一片桃花林，你是极致的理想主义者。</t>
+    <t>即使身躯疲惫，灵魂也要去追逐那个太阳。</t>
+  </si>
+  <si>
+    <t>虚火扰动，你像夸父一样不知疲倦地奔跑。你的焦虑是因为目标太远，而身体跟不上野心。你燃烧自己，只为化作一片桃林，造福后来人。</t>
+  </si>
+  <si>
+    <t>间歇性踌躇满志，持续性身体被掏空，心烦失眠。</t>
+  </si>
+  <si>
+    <t>CSDQ (孤勇者)</t>
+  </si>
+  <si>
+    <t>睡前冥想/听白噪音</t>
+  </si>
+  <si>
+    <t>晚上10点后还在卷</t>
+  </si>
+  <si>
+    <t>按揉眉心（印堂）</t>
   </si>
   <si>
     <t>HVDB</t>
@@ -297,7 +459,25 @@
     <t>十年磨一剑，霜刃未曾试。</t>
   </si>
   <si>
-    <t>你的身体像一个高温的熔炉（热）。干燥与微火（燥+虚）在反复打磨你的血肉。虽然留下了干裂的痕迹，但那正是你被炼成“绝世名器”的证明，你比别人更经得起淬炼。</t>
+    <t>用心血去打磨作品，你的锋芒只在出鞘时显现。</t>
+  </si>
+  <si>
+    <t>阴虚内热加上血瘀，你像一位痴迷的铸剑师。你消耗心血（阴虚）去打磨作品，忍受孤独（瘀），只为那一刻的绝世锋芒。</t>
+  </si>
+  <si>
+    <t>眼睛干涩痛，颈椎像生锈的铁，熬夜熬出的心血。</t>
+  </si>
+  <si>
+    <t>CSDB (执剑人)</t>
+  </si>
+  <si>
+    <t>多吃银耳/百合</t>
+  </si>
+  <si>
+    <t>报复性熬夜</t>
+  </si>
+  <si>
+    <t>闭目养神1分钟</t>
   </si>
   <si>
     <t>HVWQ</t>
@@ -309,7 +489,25 @@
     <t>做梦，就做大一点。</t>
   </si>
   <si>
-    <t>湿热交蒸（湿+热）营造出一种微醺的迷离感。你善于构建幻境（气郁），像是一个制造美梦的建筑师。你的身体处于半醉状态，这让你拥有了打破现实常规的想象力。</t>
+    <t>现实太无聊，所以你才时刻微醺。</t>
+  </si>
+  <si>
+    <t>湿热交蒸营造出一种微醺的迷离感。你善于构建幻境，像是一个制造美梦的建筑师。你的身体处于半醉状态，这让你拥有了打破现实常规的想象力。</t>
+  </si>
+  <si>
+    <t>脸上能炒菜，发际线在后退，嘴巴苦苦的。</t>
+  </si>
+  <si>
+    <t>CSWQ (云中君)</t>
+  </si>
+  <si>
+    <t>饮食清淡点</t>
+  </si>
+  <si>
+    <t>又是火锅又是酒</t>
+  </si>
+  <si>
+    <t>喝杯温柠檬水</t>
   </si>
   <si>
     <t>HVWB</t>
@@ -321,19 +519,55 @@
     <t>人生得意须尽欢，莫使金樽空对月。</t>
   </si>
   <si>
-    <t>体内像发酵的酒桶（湿热）。虽然底气不足（虚），但湿热酿造出了浪漫的亢奋。你脸上的红晕（热）和摇摇晃晃的步态，是你独有的松弛感。众人皆醒，而你独醉。</t>
+    <t>众人皆醒，而你独醉于这人间的浪漫。</t>
+  </si>
+  <si>
+    <t>体内像发酵的酒桶。虽然底气不足，但湿热酿造出了浪漫的亢奋。你脸上的红晕和摇摇晃晃的步态，是你独有的松弛感。</t>
+  </si>
+  <si>
+    <t>看着很浪漫，其实是脸红晕（小心高血压）。</t>
+  </si>
+  <si>
+    <t>CSWB (守藏史)</t>
+  </si>
+  <si>
+    <t>饭后散步/慢走</t>
+  </si>
+  <si>
+    <t>暴饮暴食吃撑了睡</t>
+  </si>
+  <si>
+    <t>敲打大腿内侧</t>
   </si>
   <si>
     <t>HSDQ</t>
   </si>
   <si>
-    <t>破壁者</t>
+    <t>破壁人</t>
   </si>
   <si>
     <t>自然选择，前进四！</t>
   </si>
   <si>
-    <t>你能量爆棚（热+实），是天生的反叛者。体内的高压（气郁+燥）是你打破墙壁的弹药。压力越大，你的破坏力和爆发力就越强，规则就是用来被你打破的。</t>
+    <t>你的能量像正午烈阳，耀眼得让人不敢直视。</t>
+  </si>
+  <si>
+    <t>实火旺盛，你是天生的战士。你的能量密度极高，不知疲倦。那种呼之欲出的压迫感，是因为你体内住着一头狮子，随时准备征服世界。</t>
+  </si>
+  <si>
+    <t>一点就炸，口腔溃疡专业户，想喝冰水。</t>
+  </si>
+  <si>
+    <t>CVDQ (听风者)</t>
+  </si>
+  <si>
+    <t>喝菊花茶降火</t>
+  </si>
+  <si>
+    <t>拿麻辣烫当晚饭</t>
+  </si>
+  <si>
+    <t>听首舒缓的纯音乐</t>
   </si>
   <si>
     <t>HSDB</t>
@@ -345,7 +579,25 @@
     <t>若一去不回？便一去不回！</t>
   </si>
   <si>
-    <t>体内全是滚烫的实火与坚硬的意志（实+燥+瘀）。你像那个从炼丹炉里出来的行者，铜头铁臂，火眼金睛。这种燥热的能量让你不知疲倦，永远战斗在最前线。</t>
+    <t>踏碎凌霄，活出真我，生命就是一场盛大的叛逆。</t>
+  </si>
+  <si>
+    <t>实热且伴有瘀滞，你拥有大圣般“顽石”的硬度和“烈火”的脾气。所有的束缚（瘀）都会被你挣脱（热），你生来就是为了打破规则。</t>
+  </si>
+  <si>
+    <t>容易上火牙痛，脾气上来不管不顾，脸上爆痘。</t>
+  </si>
+  <si>
+    <t>CVDB (守夜人)</t>
+  </si>
+  <si>
+    <t>跑步/游泳发泄精力</t>
+  </si>
+  <si>
+    <t>久坐不动打游戏</t>
+  </si>
+  <si>
+    <t>站起来扭扭腰</t>
   </si>
   <si>
     <t>HSWQ</t>
@@ -357,7 +609,25 @@
     <t>不要温和地走进那个良夜。</t>
   </si>
   <si>
-    <t>生命力太过旺盛（湿热+实），像热带雨林一样疯长。你永远精力充沛，不断侵占新的领地（扩张）。你的字典里没有“疲惫”，只有“更多”，你是最强生命力的代表。</t>
+    <t>向死而生的勇气，让你敢于在荒原上开辟新路。</t>
+  </si>
+  <si>
+    <t>湿热蕴结，你像一位在蛮荒中开路的拓荒者。虽然环境恶劣（湿热），但你拥有“怒斥光阴消逝”的生命力。你拒绝温和，选择热烈地燃烧。</t>
+  </si>
+  <si>
+    <t>油头星人，压力大就暴饮暴食，身体像个高压锅。</t>
+  </si>
+  <si>
+    <t>CVWQ (采诗官)</t>
+  </si>
+  <si>
+    <t>喝绿豆汤/无糖茶</t>
+  </si>
+  <si>
+    <t>烧烤啤酒小龙虾</t>
+  </si>
+  <si>
+    <t>按揉小腿肚</t>
   </si>
   <si>
     <t>HSWB</t>
@@ -369,7 +639,25 @@
     <t>这个宇宙的资源是有限的。</t>
   </si>
   <si>
-    <t>这是最“富足”的体质（实/湿/瘀）。你吸收了太多的能量，像一位坐拥无限宝石的霸主。营养过剩是因为你对这个世界爱得太深，想把一切美好的东西都留在身体里。</t>
+    <t>万物皆可收藏，你将岁月凝练成了生命的厚度。</t>
+  </si>
+  <si>
+    <t>实热与瘀血，让你像一位执着的收藏家。你囤积能量（热）和物质（瘀），是因为你深知资源的珍贵。你的“重”是因为你拥有的太多。</t>
+  </si>
+  <si>
+    <t>囤积癖（不管是东西还是肉），身体沉重，便秘常客。</t>
+  </si>
+  <si>
+    <t>CVWB (摆渡人)</t>
+  </si>
+  <si>
+    <t>出汗（把毒排出去）</t>
+  </si>
+  <si>
+    <t>吃榴莲/荔枝等</t>
+  </si>
+  <si>
+    <t>喝杯凉茶/苦丁茶</t>
   </si>
 </sst>
 </file>
@@ -382,7 +670,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,17 +679,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -742,53 +1024,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF1F1F1F"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF1F1F1F"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF1F1F1F"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF1F1F1F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF1F1F1F"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF1F1F1F"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF1F1F1F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF1F1F1F"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF1F1F1F"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF1F1F1F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -907,157 +1148,139 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1406,7 +1629,7 @@
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1833,21 +2056,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
-    <col min="6" max="6" width="80" customWidth="1"/>
+    <col min="1" max="1" width="17.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="48.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="132.363636363636" customWidth="1"/>
+    <col min="6" max="6" width="47.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="26.7272727272727" customWidth="1"/>
+    <col min="8" max="8" width="30.6363636363636" customWidth="1"/>
+    <col min="9" max="9" width="29.9090909090909" customWidth="1"/>
+    <col min="10" max="10" width="17.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.75" customHeight="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1857,532 +2085,541 @@
       <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="3"/>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" ht="56.75" customHeight="1" spans="1:11">
-      <c r="A2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="14.75" customHeight="1" spans="1:11">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="I2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="s">
+      <c r="J2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="7" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" t="s">
+      <c r="B3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="C3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" t="s">
+      <c r="F3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+      <c r="G3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="I3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" t="s">
+      <c r="J3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" t="s">
+      <c r="D4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
+      <c r="E4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="G4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" t="s">
+      <c r="H4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
+      <c r="I4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B9" t="s">
+      <c r="J4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="7" t="s">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" t="s">
+      <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
+      <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" t="s">
+      <c r="F5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
+      <c r="G5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B11" t="s">
+      <c r="H5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="I5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" t="s">
+      <c r="J5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" t="s">
+      <c r="D6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
+      <c r="E6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B13" t="s">
+      <c r="F6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="G6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" t="s">
+      <c r="H6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
+      <c r="I6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B14" t="s">
+      <c r="J6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="7" t="s">
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" t="s">
+      <c r="B7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
+      <c r="C7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" t="s">
+      <c r="F7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
+      <c r="G7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B16" t="s">
+      <c r="H7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="I7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" t="s">
+      <c r="J7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" t="s">
+      <c r="D8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
+      <c r="E8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
